--- a/Planilhas_teste/Vendas2023.xlsx
+++ b/Planilhas_teste/Vendas2023.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Vendas Totais" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Vendas Totais'!$A$1:$N$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Vendas Totais'!$B$1:$O$16</definedName>
     <definedName function="false" hidden="false" name="JETWAY" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" name="WAYTEC" vbProcedure="false">#REF!</definedName>
   </definedNames>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">Mês_Ano</t>
+    <t xml:space="preserve">Ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mes</t>
   </si>
   <si>
     <t xml:space="preserve">Meta Mensal</t>
@@ -52,13 +55,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="mmm\-yy"/>
-    <numFmt numFmtId="167" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -176,6 +178,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,19 +190,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -224,22 +226,23 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="20.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="9" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -261,484 +264,610 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0"/>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
-        <v>44652</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>3600000</v>
       </c>
-      <c r="D2" s="7" t="n">
-        <f aca="false">C2/B2</f>
+      <c r="E2" s="7" t="n">
+        <f aca="false">D2/C2</f>
         <v>0.72</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <f aca="false">(C2-B2)/B2</f>
+      <c r="F2" s="7" t="n">
+        <f aca="false">(D2-C2)/C2</f>
         <v>-0.28</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G2" s="9" t="n">
-        <f aca="false">C2-B2</f>
+      <c r="G2" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <f aca="false">D2-C2</f>
         <v>-1400000</v>
       </c>
-      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
-        <v>44682</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D3" s="6" t="n">
         <v>4150000</v>
       </c>
-      <c r="D3" s="7" t="n">
-        <f aca="false">C3/B3</f>
+      <c r="E3" s="7" t="n">
+        <f aca="false">D3/C3</f>
         <v>0.83</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <f aca="false">(C3-B3)/B3</f>
+      <c r="F3" s="7" t="n">
+        <f aca="false">(D3-C3)/C3</f>
         <v>-0.17</v>
       </c>
-      <c r="F3" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <f aca="false">C3-B3</f>
+      <c r="G3" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <f aca="false">D3-C3</f>
         <v>-850000</v>
       </c>
-      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>44713</v>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>5650000</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <f aca="false">C4/B4</f>
+      <c r="E4" s="7" t="n">
+        <f aca="false">D4/C4</f>
         <v>1.13</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <f aca="false">(C4-B4)/B4</f>
+      <c r="F4" s="7" t="n">
+        <f aca="false">(D4-C4)/C4</f>
         <v>0.13</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <f aca="false">C4-B4</f>
+      <c r="G4" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <f aca="false">D4-C4</f>
         <v>650000</v>
       </c>
-      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
-        <v>44743</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <f aca="false">C5/B5</f>
-        <v>1.8</v>
+        <v>5000000</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>3600000</v>
       </c>
       <c r="E5" s="7" t="n">
-        <f aca="false">(C5-B5)/B5</f>
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <f aca="false">C5-B5</f>
-        <v>4000000</v>
-      </c>
-      <c r="H5" s="0"/>
+        <f aca="false">D5/C5</f>
+        <v>0.72</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">(D5-C5)/C5</f>
+        <v>-0.28</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <f aca="false">D5-C5</f>
+        <v>-1400000</v>
+      </c>
+      <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <f aca="false">C6/B6</f>
-        <v>1.7</v>
+        <v>5000000</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>4150000</v>
       </c>
       <c r="E6" s="7" t="n">
-        <f aca="false">(C6-B6)/B6</f>
-        <v>0.7</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <f aca="false">C6-B6</f>
-        <v>3500000</v>
-      </c>
-      <c r="H6" s="0"/>
+        <f aca="false">D6/C6</f>
+        <v>0.83</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">(D6-C6)/C6</f>
+        <v>-0.17</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <f aca="false">D6-C6</f>
+        <v>-850000</v>
+      </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <f aca="false">C7/B7</f>
-        <v>1.4</v>
+        <v>5000000</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>5650000</v>
       </c>
       <c r="E7" s="7" t="n">
-        <f aca="false">(C7-B7)/B7</f>
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <f aca="false">C7-B7</f>
-        <v>2000000</v>
-      </c>
-      <c r="H7" s="0"/>
+        <f aca="false">D7/C7</f>
+        <v>1.13</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">(D7-C7)/C7</f>
+        <v>0.13</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <f aca="false">D7-C7</f>
+        <v>650000</v>
+      </c>
+      <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <f aca="false">C8/B8</f>
-        <v>0.9</v>
+        <v>5000000</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>9000000</v>
       </c>
       <c r="E8" s="7" t="n">
-        <f aca="false">(C8-B8)/B8</f>
-        <v>-0.1</v>
-      </c>
-      <c r="F8" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">C8-B8</f>
-        <v>-500000</v>
-      </c>
-      <c r="H8" s="0"/>
+        <f aca="false">D8/C8</f>
+        <v>1.8</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <f aca="false">(D8-C8)/C8</f>
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <f aca="false">D8-C8</f>
+        <v>4000000</v>
+      </c>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
-        <v>44866</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4400000</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <f aca="false">C9/B9</f>
-        <v>0.88</v>
+        <v>5000000</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>8500000</v>
       </c>
       <c r="E9" s="7" t="n">
-        <f aca="false">(C9-B9)/B9</f>
-        <v>-0.12</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <f aca="false">C9-B9</f>
-        <v>-600000</v>
-      </c>
-      <c r="H9" s="0"/>
-      <c r="I9" s="10"/>
+        <f aca="false">D9/C9</f>
+        <v>1.7</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <f aca="false">(D9-C9)/C9</f>
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <f aca="false">D9-C9</f>
+        <v>3500000</v>
+      </c>
+      <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <f aca="false">C10/B10</f>
-        <v>0.78</v>
+        <v>5000000</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>7000000</v>
       </c>
       <c r="E10" s="7" t="n">
-        <f aca="false">(C10-B10)/B10</f>
-        <v>-0.22</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <f aca="false">C10-B10</f>
-        <v>-1100000</v>
-      </c>
-      <c r="H10" s="0"/>
+        <f aca="false">D10/C10</f>
+        <v>1.4</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <f aca="false">(D10-C10)/C10</f>
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <f aca="false">D10-C10</f>
+        <v>2000000</v>
+      </c>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>10</v>
       </c>
       <c r="C11" s="6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>4500000</v>
       </c>
-      <c r="D11" s="7" t="n">
-        <f aca="false">C11/B11</f>
+      <c r="E11" s="7" t="n">
+        <f aca="false">D11/C11</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="7" t="n">
-        <f aca="false">(C11-B11)/B11</f>
+      <c r="F11" s="7" t="n">
+        <f aca="false">(D11-C11)/C11</f>
         <v>-0.1</v>
       </c>
-      <c r="F11" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <f aca="false">C11-B11</f>
+      <c r="G11" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <f aca="false">D11-C11</f>
         <v>-500000</v>
       </c>
-      <c r="H11" s="0"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
-        <v>44958</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>3350000</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <f aca="false">C12/B12</f>
-        <v>0.67</v>
+        <v>5000000</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>4400000</v>
       </c>
       <c r="E12" s="7" t="n">
-        <f aca="false">(C12-B12)/B12</f>
-        <v>-0.33</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <f aca="false">C12-B12</f>
-        <v>-1650000</v>
-      </c>
-      <c r="H12" s="0"/>
+        <f aca="false">D12/C12</f>
+        <v>0.88</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <f aca="false">(D12-C12)/C12</f>
+        <v>-0.12</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <f aca="false">D12-C12</f>
+        <v>-600000</v>
+      </c>
+      <c r="I12" s="0"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
-        <v>44986</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>5000000</v>
+        <v>2022</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <f aca="false">D13/C13</f>
+        <v>0.78</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <f aca="false">(D13-C13)/C13</f>
+        <v>-0.22</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <f aca="false">D13-C13</f>
+        <v>-1100000</v>
+      </c>
+      <c r="I13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <f aca="false">D14/C14</f>
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">(D14-C14)/C14</f>
+        <v>-0.1</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <f aca="false">D14-C14</f>
+        <v>-500000</v>
+      </c>
+      <c r="I14" s="0"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>3350000</v>
       </c>
-      <c r="D13" s="7" t="n">
-        <f aca="false">C13/B13</f>
+      <c r="E15" s="7" t="n">
+        <f aca="false">D15/C15</f>
         <v>0.67</v>
       </c>
-      <c r="E13" s="7" t="n">
-        <f aca="false">(C13-B13)/B13</f>
+      <c r="F15" s="7" t="n">
+        <f aca="false">(D15-C15)/C15</f>
         <v>-0.33</v>
       </c>
-      <c r="F13" s="8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <f aca="false">C13-B13</f>
+      <c r="G15" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <f aca="false">D15-C15</f>
         <v>-1650000</v>
       </c>
-      <c r="H13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="11"/>
+      <c r="I15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>3350000</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <f aca="false">D16/C16</f>
+        <v>0.67</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">(D16-C16)/C16</f>
+        <v>-0.33</v>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <f aca="false">D16-C16</f>
+        <v>-1650000</v>
+      </c>
+      <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="11"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
-      <c r="G20" s="11"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
-      <c r="G21" s="11"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
       <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="11"/>
+    </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
